--- a/IVF_english_dataset.xlsx
+++ b/IVF_english_dataset.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65D7F62-2DBD-424F-9B51-1618912D7051}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC2A5D7-7044-4E9B-9D92-515EA10B8B59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
-    <t>KAÇ DEFA TUP BEBEK SURECİ</t>
-  </si>
-  <si>
-    <t>DİYETİSYEN İLE ÇALIŞMA SURESİ</t>
-  </si>
-  <si>
     <t>80.5</t>
-  </si>
-  <si>
-    <t>kac_yildir_cocuk_istiyor(Yil)</t>
   </si>
   <si>
     <t>Age</t>
@@ -102,6 +93,15 @@
   </si>
   <si>
     <t>Transfer state</t>
+  </si>
+  <si>
+    <t>How many years has he/she wanted a child? (Years)</t>
+  </si>
+  <si>
+    <t>HOW MANY TIMES CAN I HAVE IVF PROCESSES?</t>
+  </si>
+  <si>
+    <t>Duration of Working with a Dietitian</t>
   </si>
 </sst>
 </file>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,91 +647,91 @@
     <col min="23" max="23" width="35.21875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="49.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="T1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="U1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="X1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="4" t="s">
+      <c r="AA1" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
@@ -739,7 +739,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -7442,7 +7442,7 @@
         <v>38</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C83" s="18">
         <v>1</v>
